--- a/Equipe211.xlsx
+++ b/Equipe211.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25103"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25207"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikolay\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="268" documentId="8_{A9B08717-0A78-4896-A8AA-F48CA0C7A758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F41107EC-ABF2-46AE-954D-92F3D3D0E178}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{45A87161-80BC-4D90-A803-7DB4FC87C707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sommaire" sheetId="9" r:id="rId1"/>
@@ -26,6 +26,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="196">
   <si>
     <t>Fonct.</t>
   </si>
@@ -100,6 +101,11 @@
   </si>
   <si>
     <t>Le projet respecte les meilleures pratiques des cadriciels utilisés. (Exemple: séparation des responsabilités dans les Components et Services d'Angular, respect de la sémantique HTTP avec Express, etc.)</t>
+  </si>
+  <si>
+    <t>-2 Client:BoardComponent - getElementByClassName n'est pas une bonne pratique, utiliser @ViewChild. S'il n'y a pas d'élément, vous aurez une exception. L'exception n'est pas gérée. Même chose pour child, classList, getElementsByTagName. TileHolderComponent utilise aussi getElementById, children, textContent, childElementCount, etc. Étant donné que vous avez beaucoup de code comme ça et que je ne m'attends pas à ce que vous le corrigiez, je pénalise sévèrement le sprint2, mais je vais l'ignorer pour le sprint3. Si par contre vous le corrigez pour le sprint3, je vais réduire les points retirés au sprint2.
+-0.25 Client:ClientSocketHandlerServer:88
+-1 Server:DatabaseService - les connections strings vont dans des variables d'environnement</t>
   </si>
   <si>
     <t>1.2 Arborescence</t>
@@ -114,6 +120,9 @@
 -0.25 Server:PlacementInformation </t>
   </si>
   <si>
+    <t>-0.25 Server - le fichier best-score.service.ts contient la classe DatabaseService</t>
+  </si>
+  <si>
     <t>Sous-total</t>
   </si>
   <si>
@@ -129,6 +138,10 @@
   <si>
     <t>-1 Server:SocketManagerService
 -0.5 Client:ChatService</t>
+  </si>
+  <si>
+    <t>-1 Client:ClientSocketHandlerService
+-1 Server:SocketManagerService</t>
   </si>
   <si>
     <t>2.2 Nom</t>
@@ -150,6 +163,10 @@
 -0.25 Server:Game.gameBoard</t>
   </si>
   <si>
+    <t>-0.25 Client:TileComponent.letterFontSize
+-0.25 Server:GameManagerService .characterVerification</t>
+  </si>
+  <si>
     <t>2.4 Accessibilité</t>
   </si>
   <si>
@@ -158,6 +175,14 @@
   </si>
   <si>
     <t>-0.25 Server:GameManagerService .exchangeFormatValid .exchangeTileHolderValid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.25 Server:Game .placementBot .actionVirtualBeginnerPlayer
+-0.25 Server:PlacementCommand .findNewWords .insideBoardGame
+-0.25 Server:PointsCalculator .newLetterOnBoard .specialPropertyWord
+-0.25 Server:VirtualPlayer .getRandomLetterForBlank .getCombinations
+-0.25 Server:DatabaseService .populateDB
+-0.25 Server:GameManagerService .messageLengthVerification </t>
   </si>
   <si>
     <t>2.5 Valeur par défaut</t>
@@ -171,6 +196,11 @@
 -0.25 Server:SocketManagerService</t>
   </si>
   <si>
+    <t>-0.25 Client:PlayAreaComponent
+-0.25 Client:JoinPageComponent
+-0.25 Client:ClientSocketHandlerService</t>
+  </si>
+  <si>
     <t>3. Fonctions</t>
   </si>
   <si>
@@ -184,13 +214,17 @@
 La fonction a un nom qui respecte le format camelCase.</t>
   </si>
   <si>
-    <t>-0.05: Client::BoardService::verifyProperty ... nom pas très clair!
+    <t>-0.05: Client::BoardService::verifyProperty ... nom pas très précis!
 -0.05: Client::ChatService::accepted -&gt; isAcceptedToJoin ?
 -0.05: Client::ResizerService::changeValue ... nom pas très précis!
 -0.07: Server::Game::verifyGameState ... la fonction ne fait pas que la vérification ... pensez à changer le nom!
 -0.05: Server::GameManagerService::lengthVerification ... nom pas très précis (length of ?)!</t>
   </si>
   <si>
+    <t>-0.10: Client::TileHolderComponent::isAtExtremity -&gt; getNodeExtremity ?
+-0.10: Client::clientSocketHandlerService::passerTour ... nom de la fonction!</t>
+  </si>
+  <si>
     <t>3.2 Utilité</t>
   </si>
   <si>
@@ -199,6 +233,10 @@
   </si>
   <si>
     <t>-0.20: Client::BoardService::getBoard ... n'est pas utile!</t>
+  </si>
+  <si>
+    <t>-0.15: Client::ClientSocketHandlerService::configureBaseSocketFeatures ... mettre quelques callbacks dans des fonctions!
+-0.20: Server::SocketManagerService::handleSockets ... mettre quelques callbacks dans des fonctions!</t>
   </si>
   <si>
     <t>3.3 Paramètres</t>
@@ -221,6 +259,17 @@
 Warning: Server::RoomManagerService::joinRoom ... essayez de réduire le nombre de paramètres!</t>
   </si>
   <si>
+    <t>-0.05: Client::TileHolderComponent::checkForID ... type de la sortie!
+-0.05: Client::TileHolderComponent::isAtExtremity ... type de la sortie!
+-0.05: Client::TileHolderComponent::getLettersOnHolder ... type de la sortie!
+-0.05: Client::TileHolderComponent::findLetterIndexes ... type de la sortie!
+-0.05: Client::TileHolderComponent::getLastKey ... type de la sortie!
+-0.05: Client::JoinPageComponent::myError ... type de la sortie!
+-0.05: Server::Player::isUpper ... type de la sortie!
+-0.05: Server::PointsCalculator::calculatedPointsPlacement ... type de la sortie!
+-0.05: Server::VirtualPlayer::getCombinations ... type de la sortie!</t>
+  </si>
+  <si>
     <t>4. Exceptions</t>
   </si>
   <si>
@@ -232,6 +281,9 @@
   <si>
     <t>-0.30: Une erreur et quelques avertissements lors de la création d'une partie!
 -0.50: Quelques erreurs sur la console pour les tests du client!</t>
+  </si>
+  <si>
+    <t>-0.5: Quelques avertissements quand on clique sur le bouton 'Scrabble Classique'!</t>
   </si>
   <si>
     <t>4.2 Code asynchrone</t>
@@ -273,12 +325,20 @@
     <t>Warning: Dans le fichier client::constants::general-constants.ts, NUMBER_LETTER_TILEHOLDER -&gt; NUMBER_LETTER_TILE_HOLDER</t>
   </si>
   <si>
+    <t>-0.10: Client::Constants::GeneralConstants ... NUMBER_LETTER_TILEHOLDER -&gt; NUMBER_LETTER_TILE_HOLDER
+-0.10: Server::GameManagerService::messageVerification ... nom de la variable 'erreur'</t>
+  </si>
+  <si>
     <t>5.4 Constante</t>
   </si>
   <si>
     <t>La constante est utilisé dans un contexte lié à la logique d'affaire. (Exemple d'erreur: const DEUX = 2,  bonne utilisation: WAIT_TIME = 5000 )</t>
   </si>
   <si>
+    <t>-0.25: Server::PlacementCommand::validatedPlaceCommandBoard ... les constantes 'tileHolderContains', 'insideBoard' et 'wordCondition' peuvent être des constantes! 
+-0.10: Server::VirtualPlayer::findAllPositionGameBoard ... la constante 'tilesShuffled' est inutile!</t>
+  </si>
+  <si>
     <t>6. Expressions booléennes</t>
   </si>
   <si>
@@ -292,6 +352,9 @@
   </si>
   <si>
     <t>L'expression booléenne évite la logique négative. (Exemple d'erreur:  if( !notFound(…) )</t>
+  </si>
+  <si>
+    <t>-0.25 Server:SocketManagerService:286</t>
   </si>
   <si>
     <t>6.3 Ternaire</t>
@@ -304,6 +367,16 @@
 -0.25 Server:IdManagerService:32, 63</t>
   </si>
   <si>
+    <t>-0.25 Client:TileHolderComponent:50
+-0.25 Client:ClientSocketHandlerService:77, 96, 169
+-0.25 Server:Game:162, 170, 242, 255
+-0.25 Server:PlacementCommand:285-291
+-0.25 Server:ReserverCommand:12
+-0.25 Server:VirtualPlayer:69
+-0.25 Server:GameBoardService:47, 53
+-0.5 Server:SocketManagerService:153, 183, 226, 243, 264</t>
+  </si>
+  <si>
     <t>6.4 Prédicats</t>
   </si>
   <si>
@@ -315,7 +388,19 @@
 -0 Server:Game:79 - limite</t>
   </si>
   <si>
+    <t>-0.25 Client:TileHolderComponent:147, 149, 158, 160, 209, 215
+-0.25 Client:BoardComponent:149
+-0.25 BoardService:19-28
+-0.25 Client:ClientSocketHandlerService:212-235
+-0.25 Server:PlacementCommand:187, 207, 
+-0.25 Server:VirtualPlayer:184, 190
+-0.25 Server:GameBoardService:15-24</t>
+  </si>
+  <si>
     <t>7. Qualité générale</t>
+  </si>
+  <si>
+    <t>Kevin</t>
   </si>
   <si>
     <t>7.1 Langue</t>
@@ -334,6 +419,9 @@
     <t>-1 placement-command.ts</t>
   </si>
   <si>
+    <t>-0.5 client::BoardComponent:147</t>
+  </si>
+  <si>
     <t>7.3 Enum</t>
   </si>
   <si>
@@ -348,6 +436,9 @@
   </si>
   <si>
     <t>Le code n'utilise pas d'objets anonymes JS et priorise les classes et les interfaces.</t>
+  </si>
+  <si>
+    <t>-0.5 server::Game:86</t>
   </si>
   <si>
     <t>7.5 Duplication</t>
@@ -359,6 +450,9 @@
     <t>-0.5 game.ts 32-37
 -2 placement-command.ts 188-195, 208-214,239-273
 -0.5 player.ts 39-44</t>
+  </si>
+  <si>
+    <t>-0.5 server::GameBoardService:62-71</t>
   </si>
   <si>
     <t>7.6 ESLint</t>
@@ -372,6 +466,12 @@
 -1 placemen-commandéts
 -1 resizer.service.ts
 -1 join-page.compenent.ts</t>
+  </si>
+  <si>
+    <t>-1 eslint-disable-next-line no-invalid-this
+-1 /* eslint-disable complexity */
+-1 /* eslint-disable @typescript-eslint/no-shadow */
+-1 /* eslint-disable no-console */</t>
   </si>
   <si>
     <t>7.7 Imbrication</t>
@@ -388,6 +488,13 @@
 -1 SocketManager:95</t>
   </si>
   <si>
+    <t>-1 client::BoardComponent:105,180
+-0.5 server::VirtualPlayer:64
+-0.5 server::DatabaseService:93
+-0.5 server::RoomManager:64
+-3.5 server:SocketManager:112,120,122,165,223,237,249</t>
+  </si>
+  <si>
     <t>7.8 Performance</t>
   </si>
   <si>
@@ -419,6 +526,9 @@
   </si>
   <si>
     <t xml:space="preserve">Le projet ne contient pas de branches mortes (stale branch). Une branche est considérée comme morte si elle n'a pas de commit pendant plus de 3 semaines. </t>
+  </si>
+  <si>
+    <t>-1 demo, feature/reserve-command feature/swap-letters, etc.</t>
   </si>
   <si>
     <t>8.4 Gitlab</t>
@@ -460,9 +570,6 @@
   </si>
   <si>
     <t>1.1 Point d'entrée de l'application</t>
-  </si>
-  <si>
-    <t>Kevin</t>
   </si>
   <si>
     <t>1.2 Initialisation d'une nouvelle partie - Multijoueur</t>
@@ -594,9 +701,23 @@
     <t>2.2 Placement aléatoire dans une partie</t>
   </si>
   <si>
+    <t>--- Fonctionnalités ---
+- Placement aléatoire fonctionne: Oui 3/3
+- Le bouton est invisible s'il n'y a pas de partie: Oui 1.5/1.5
+- Le bouton est visible mais désactivé s'il y a 1 partie: Oui 1.5/1.5
+--- Tests ---
+Server:RoomManagerService.joinRoom</t>
+  </si>
+  <si>
     <t>2.3 Meilleurs scores</t>
   </si>
   <si>
+    <t>--- Fonctionnalités --- 
+-0.10: Message d'erreur pour l'inaccessibilité de la base de données mais pas pour la déconnexion du serveur!
+--- Tests --- 
+Server::SocketManagerService::handleSockets</t>
+  </si>
+  <si>
     <t>2.4 Paramètres de partie - minuterie</t>
   </si>
   <si>
@@ -606,16 +727,66 @@
     <t>2.6 Placer des lettres</t>
   </si>
   <si>
+    <t>--- Fonctionnalités ---
+- Possible de modifier l'axe et la flèche change: Oui 2/2
+- Marqueur de case active et bordure:  Oui 2/2
+- Possible de placer des lettres avec le clavier: Oui 2/2
+- Possible de placer la lettre blanche avec majuscule: Oui 1/1
+- Possible de placer une lettre avec accent: Oui 1/1
+- Possible de retirer des lettres avec backspace: Oui 2/2
+- Confirmer placement avec enter: Oui 2/2
+- Annuler placement avec escape, chevalet ou boite de communication: Seulement pour escape -0.66 = 0.34/1
+- Résultat de la commande de la boite de communication: Oui 1/1
+--- Tests ---
+Client:BoardComponent.placeWord
+Server:PlacementCommand
+Server:SocketManager.on('placer')</t>
+  </si>
+  <si>
     <t>2.7 Échanger des lettres</t>
   </si>
   <si>
+    <t>--- Fonctionnalités --- 
+-0.15: Quand je séléctionne avant d'avoir le tour, la vue désélectionne les lettres mais les boutons sont toujours actifs!
+-0.15: Quand je séléctionne une lettre et la déplacer tout en séléctionnant une autre lettre pour échange, les deux sont échangées!
+--- Tests --- 
+Server::SocketManagerService::handleSockets</t>
+  </si>
+  <si>
     <t>2.8 Commande réserve</t>
   </si>
   <si>
+    <t xml:space="preserve">--- Fonctionnalités ---
+- Possible d'avoir le réserve avec la commande !réserve: Oui 1.5/1.5
+- Respect de l'affichage LETTRE:QUANTITÉ: Oui 1.5/1.5
+- Seulement pour le joueur qui a fait la commande: Oui 1/1
+-0.5 Problème suite à échange, il y a des lettres minuscules
+--- Tests --- </t>
+  </si>
+  <si>
     <t>2.9 Manipuler les lettres du chevalet</t>
   </si>
   <si>
+    <t>--- Fonctionnalités ---
+- C'est clair qu'elle lettre est sélectionnée: Oui 1/1
+- Possible de sélectionner avec click gauche: Oui 1/1
+- Possible de sélectionner avec touche du clavier: Oui 1.5/1.5
+- Possible de sélectionner la lettre blanche: Oui 0.5/0.5
+- Désélectionner avec une lettre pas dans le chevalet: Oui 1/1
+- Possible de sélectionner la deuxième occurence en appuyant 2 fois sur la même lettre: Oui 1/1
+- Possible de déplacer les lettres avec les flèches: Oui 2/2
+- Possible de déplacer les lettres avec la roulette: Oui 1/1
+- Les positions des lettres est conservées entre les tours: Non 0/1
+--- Tests ---</t>
+  </si>
+  <si>
     <t>2.10 Commande indice</t>
+  </si>
+  <si>
+    <t>--- Fonctionnalités --- 
+Excellent travail!
+--- Tests --- 
+Server::SocketManagerService::handleSockets</t>
   </si>
   <si>
     <t>Erreur de build  / déploiement erroné</t>
@@ -1636,7 +1807,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="294">
+  <cellXfs count="298">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2075,9 +2246,6 @@
     <xf numFmtId="0" fontId="14" fillId="20" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="12" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2246,9 +2414,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="55" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2337,6 +2502,24 @@
     <xf numFmtId="0" fontId="14" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="20" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="9" borderId="54" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2495,13 +2678,13 @@
     </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="40 % - Accent1" xfId="4" builtinId="31"/>
-    <cellStyle name="40 % - Accent2" xfId="5" builtinId="35"/>
-    <cellStyle name="40 % - Accent3" xfId="6" builtinId="39"/>
+    <cellStyle name="40% - Accent1" xfId="4" builtinId="31"/>
+    <cellStyle name="40% - Accent2" xfId="5" builtinId="35"/>
+    <cellStyle name="40% - Accent3" xfId="6" builtinId="39"/>
+    <cellStyle name="Explanatory Text" xfId="2" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
-    <cellStyle name="Sortie" xfId="3" builtinId="21"/>
-    <cellStyle name="Texte explicatif" xfId="2" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="3" builtinId="21"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2925,7 +3108,7 @@
       </c>
       <c r="B4" s="95">
         <f>(Fonctionnalités!E18)</f>
-        <v>0.82814999999999994</v>
+        <v>0.83115000000000006</v>
       </c>
       <c r="C4" s="95">
         <f>'Assurance Qualité'!C60</f>
@@ -2933,7 +3116,7 @@
       </c>
       <c r="D4" s="95">
         <f>B4*0.6+C4*0.4 - 0.1*E4</f>
-        <v>0.79728999999999994</v>
+        <v>0.79909000000000008</v>
       </c>
       <c r="E4" s="96"/>
       <c r="F4" s="97">
@@ -2941,7 +3124,7 @@
       </c>
       <c r="G4" s="98">
         <f>D4*F4</f>
-        <v>15.945799999999998</v>
+        <v>15.981800000000002</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2950,15 +3133,15 @@
       </c>
       <c r="B5" s="100">
         <f>(Fonctionnalités!E34)</f>
-        <v>0</v>
+        <v>0.85611999999999999</v>
       </c>
       <c r="C5" s="100">
         <f>'Assurance Qualité'!F60</f>
-        <v>0</v>
+        <v>0.65249999999999997</v>
       </c>
       <c r="D5" s="100">
         <f t="shared" ref="D5:D6" si="0">B5*0.6+C5*0.4 - 0.1*E5</f>
-        <v>0</v>
+        <v>0.77467200000000003</v>
       </c>
       <c r="E5" s="101"/>
       <c r="F5" s="102">
@@ -2966,7 +3149,7 @@
       </c>
       <c r="G5" s="103">
         <f t="shared" ref="G5:G7" si="1">D5*F5</f>
-        <v>0</v>
+        <v>19.366800000000001</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -3022,18 +3205,18 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A2:Q60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="B38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="77.5703125" style="10" customWidth="1"/>
-    <col min="3" max="4" width="10.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="93.5703125" style="10" customWidth="1"/>
+    <col min="3" max="4" width="10.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="93.5703125" style="10" hidden="1" customWidth="1"/>
     <col min="6" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" style="10" customWidth="1"/>
+    <col min="8" max="8" width="108.140625" style="10" customWidth="1"/>
     <col min="9" max="10" width="10.7109375" customWidth="1"/>
     <col min="11" max="11" width="20.7109375" style="10" customWidth="1"/>
     <col min="12" max="13" width="12.7109375" customWidth="1"/>
@@ -3042,36 +3225,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A2" s="274" t="s">
+      <c r="A2" s="278" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="274"/>
-      <c r="C2" s="274"/>
-      <c r="D2" s="274"/>
-      <c r="E2" s="274"/>
-      <c r="F2" s="274"/>
-      <c r="G2" s="274"/>
-      <c r="H2" s="274"/>
-      <c r="I2" s="274"/>
-      <c r="J2" s="274"/>
-      <c r="K2" s="274"/>
+      <c r="B2" s="278"/>
+      <c r="C2" s="278"/>
+      <c r="D2" s="278"/>
+      <c r="E2" s="278"/>
+      <c r="F2" s="278"/>
+      <c r="G2" s="278"/>
+      <c r="H2" s="278"/>
+      <c r="I2" s="278"/>
+      <c r="J2" s="278"/>
+      <c r="K2" s="278"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
     <row r="4" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A4" s="275" t="s">
+      <c r="A4" s="279" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="275"/>
-      <c r="C4" s="275"/>
-      <c r="D4" s="275"/>
-      <c r="E4" s="275"/>
-      <c r="F4" s="275"/>
-      <c r="G4" s="275"/>
-      <c r="H4" s="275"/>
-      <c r="I4" s="275"/>
-      <c r="J4" s="275"/>
-      <c r="K4" s="275"/>
+      <c r="B4" s="279"/>
+      <c r="C4" s="279"/>
+      <c r="D4" s="279"/>
+      <c r="E4" s="279"/>
+      <c r="F4" s="279"/>
+      <c r="G4" s="279"/>
+      <c r="H4" s="279"/>
+      <c r="I4" s="279"/>
+      <c r="J4" s="279"/>
+      <c r="K4" s="279"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
     </row>
@@ -3091,36 +3274,36 @@
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A6" s="267" t="s">
+      <c r="A6" s="271" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="279" t="s">
+      <c r="B6" s="283" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="269" t="s">
+      <c r="C6" s="273" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="270"/>
-      <c r="E6" s="270"/>
-      <c r="F6" s="271" t="s">
+      <c r="D6" s="274"/>
+      <c r="E6" s="274"/>
+      <c r="F6" s="275" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="272"/>
-      <c r="H6" s="273"/>
-      <c r="I6" s="276" t="s">
+      <c r="G6" s="276"/>
+      <c r="H6" s="277"/>
+      <c r="I6" s="280" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="277"/>
-      <c r="K6" s="278"/>
+      <c r="J6" s="281"/>
+      <c r="K6" s="282"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
-      <c r="N6" s="265"/>
-      <c r="O6" s="266"/>
-      <c r="P6" s="266"/>
+      <c r="N6" s="269"/>
+      <c r="O6" s="270"/>
+      <c r="P6" s="270"/>
     </row>
     <row r="7" spans="1:17" ht="18.75">
-      <c r="A7" s="268"/>
-      <c r="B7" s="280"/>
+      <c r="A7" s="272"/>
+      <c r="B7" s="284"/>
       <c r="C7" s="14" t="s">
         <v>14</v>
       </c>
@@ -3156,26 +3339,28 @@
       <c r="Q7" s="36"/>
     </row>
     <row r="8" spans="1:17" ht="18.75">
-      <c r="A8" s="249" t="s">
+      <c r="A8" s="253" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="249"/>
-      <c r="C8" s="242" t="s">
+      <c r="B8" s="253"/>
+      <c r="C8" s="246" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="243"/>
+      <c r="D8" s="247"/>
       <c r="E8" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="242" t="s">
+      <c r="F8" s="246" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="243"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="242" t="s">
+      <c r="G8" s="247"/>
+      <c r="H8" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="246" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="243"/>
+      <c r="J8" s="247"/>
       <c r="K8" s="42"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
@@ -3184,31 +3369,36 @@
       <c r="P8" s="36"/>
       <c r="Q8" s="36"/>
     </row>
-    <row r="9" spans="1:17" ht="45">
+    <row r="9" spans="1:17" ht="121.5">
       <c r="A9" s="29" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="208">
+      <c r="C9" s="207">
         <f>6/6</f>
         <v>1</v>
       </c>
-      <c r="D9" s="209">
+      <c r="D9" s="208">
         <v>6</v>
       </c>
-      <c r="E9" s="210"/>
-      <c r="F9" s="211"/>
-      <c r="G9" s="212">
+      <c r="E9" s="209"/>
+      <c r="F9" s="244">
+        <f>(6-3)/6</f>
+        <v>0.5</v>
+      </c>
+      <c r="G9" s="210">
         <v>6</v>
       </c>
-      <c r="H9" s="213"/>
-      <c r="I9" s="214"/>
-      <c r="J9" s="215">
+      <c r="H9" s="211" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="212"/>
+      <c r="J9" s="213">
         <v>6</v>
       </c>
-      <c r="K9" s="216"/>
+      <c r="K9" s="214"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="36"/>
@@ -3216,33 +3406,38 @@
       <c r="P9" s="36"/>
       <c r="Q9" s="36"/>
     </row>
-    <row r="10" spans="1:17" ht="45">
+    <row r="10" spans="1:17" ht="30.75">
       <c r="A10" s="23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="208">
+        <v>23</v>
+      </c>
+      <c r="C10" s="207">
         <f>(2-1)/2</f>
         <v>0.5</v>
       </c>
-      <c r="D10" s="209">
+      <c r="D10" s="208">
         <v>2</v>
       </c>
-      <c r="E10" s="210" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="211"/>
-      <c r="G10" s="212">
+      <c r="E10" s="209" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="244">
+        <f>(2-0.25)/2</f>
+        <v>0.875</v>
+      </c>
+      <c r="G10" s="210">
         <v>2</v>
       </c>
-      <c r="H10" s="213"/>
-      <c r="I10" s="214"/>
-      <c r="J10" s="215">
+      <c r="H10" s="211" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="212"/>
+      <c r="J10" s="213">
         <v>2</v>
       </c>
-      <c r="K10" s="216"/>
+      <c r="K10" s="214"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="36"/>
@@ -3251,37 +3446,37 @@
       <c r="Q10" s="36"/>
     </row>
     <row r="11" spans="1:17" s="30" customFormat="1" ht="15.75">
-      <c r="A11" s="244" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="245"/>
-      <c r="C11" s="218">
+      <c r="A11" s="248" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="249"/>
+      <c r="C11" s="216">
         <f>SUMPRODUCT(C6:C10,D6:D10)</f>
         <v>7</v>
       </c>
-      <c r="D11" s="219">
+      <c r="D11" s="217">
         <f>SUM(D6:D10)</f>
         <v>8</v>
       </c>
-      <c r="E11" s="220"/>
-      <c r="F11" s="221">
+      <c r="E11" s="218"/>
+      <c r="F11" s="219">
         <f>SUMPRODUCT(F6:F10,G6:G10)</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="222">
+        <v>4.75</v>
+      </c>
+      <c r="G11" s="220">
         <f>SUM(G6:G10)</f>
         <v>8</v>
       </c>
-      <c r="H11" s="223"/>
-      <c r="I11" s="224">
+      <c r="H11" s="221"/>
+      <c r="I11" s="222">
         <f>SUMPRODUCT(I6:I10,J6:J10)</f>
         <v>0</v>
       </c>
-      <c r="J11" s="225">
+      <c r="J11" s="223">
         <f>SUM(J6:J10)</f>
         <v>8</v>
       </c>
-      <c r="K11" s="226"/>
+      <c r="K11" s="224"/>
       <c r="L11" s="52"/>
       <c r="M11" s="52"/>
       <c r="N11" s="40"/>
@@ -3290,26 +3485,28 @@
       <c r="Q11" s="40"/>
     </row>
     <row r="12" spans="1:17" s="12" customFormat="1" ht="18.399999999999999" customHeight="1">
-      <c r="A12" s="249" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="249"/>
-      <c r="C12" s="242" t="s">
+      <c r="A12" s="253" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="253"/>
+      <c r="C12" s="246" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="243"/>
+      <c r="D12" s="247"/>
       <c r="E12" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="242" t="s">
+      <c r="F12" s="246" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="243"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="242" t="s">
+      <c r="G12" s="247"/>
+      <c r="H12" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="246" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="243"/>
+      <c r="J12" s="247"/>
       <c r="K12" s="42"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
@@ -3318,14 +3515,14 @@
       <c r="P12" s="39"/>
       <c r="Q12" s="39"/>
     </row>
-    <row r="13" spans="1:17" ht="30">
+    <row r="13" spans="1:17" ht="30.75">
       <c r="A13" s="29" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="217">
+        <v>29</v>
+      </c>
+      <c r="C13" s="215">
         <f>(4-1.5)/4</f>
         <v>0.625</v>
       </c>
@@ -3333,13 +3530,18 @@
         <v>4</v>
       </c>
       <c r="E13" s="77" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="85"/>
+        <v>30</v>
+      </c>
+      <c r="F13" s="85">
+        <f>2/4</f>
+        <v>0.5</v>
+      </c>
       <c r="G13" s="86">
         <v>4</v>
       </c>
-      <c r="H13" s="87"/>
+      <c r="H13" s="87" t="s">
+        <v>31</v>
+      </c>
       <c r="I13" s="88"/>
       <c r="J13" s="89">
         <v>4</v>
@@ -3348,12 +3550,12 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" spans="1:17" ht="30">
+    <row r="14" spans="1:17" ht="30.75">
       <c r="A14" s="23" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B14" s="23" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C14" s="79">
         <f>2/2</f>
@@ -3363,7 +3565,10 @@
         <v>2</v>
       </c>
       <c r="E14" s="81"/>
-      <c r="F14" s="82"/>
+      <c r="F14" s="82">
+        <f>2/2</f>
+        <v>1</v>
+      </c>
       <c r="G14" s="83">
         <v>2</v>
       </c>
@@ -3376,14 +3581,14 @@
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
     </row>
-    <row r="15" spans="1:17" ht="45">
+    <row r="15" spans="1:17" ht="45.75">
       <c r="A15" s="23" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="207">
+        <v>35</v>
+      </c>
+      <c r="C15" s="206">
         <f>(3-2*0.25)/3</f>
         <v>0.83333333333333337</v>
       </c>
@@ -3391,13 +3596,18 @@
         <v>3</v>
       </c>
       <c r="E15" s="81" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="82"/>
+        <v>36</v>
+      </c>
+      <c r="F15" s="243">
+        <f>(3-0.5)/3</f>
+        <v>0.83333333333333337</v>
+      </c>
       <c r="G15" s="83">
         <v>3</v>
       </c>
-      <c r="H15" s="84"/>
+      <c r="H15" s="84" t="s">
+        <v>37</v>
+      </c>
       <c r="I15" s="72"/>
       <c r="J15" s="73">
         <v>3</v>
@@ -3406,14 +3616,14 @@
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
     </row>
-    <row r="16" spans="1:17" ht="45">
+    <row r="16" spans="1:17" ht="91.5">
       <c r="A16" s="23" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="207">
+        <v>39</v>
+      </c>
+      <c r="C16" s="206">
         <f>(2-0.25)/2</f>
         <v>0.875</v>
       </c>
@@ -3421,13 +3631,18 @@
         <v>2</v>
       </c>
       <c r="E16" s="81" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16" s="82"/>
+        <v>40</v>
+      </c>
+      <c r="F16" s="82">
+        <f>(2-0.25*6)/2</f>
+        <v>0.25</v>
+      </c>
       <c r="G16" s="83">
         <v>2</v>
       </c>
-      <c r="H16" s="84"/>
+      <c r="H16" s="84" t="s">
+        <v>41</v>
+      </c>
       <c r="I16" s="72"/>
       <c r="J16" s="73">
         <v>2</v>
@@ -3436,14 +3651,14 @@
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
     </row>
-    <row r="17" spans="1:17" ht="45">
+    <row r="17" spans="1:17" ht="45.75">
       <c r="A17" s="23" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="207">
+        <v>43</v>
+      </c>
+      <c r="C17" s="206">
         <f>(4-3*0.25)/4</f>
         <v>0.8125</v>
       </c>
@@ -3451,13 +3666,18 @@
         <v>4</v>
       </c>
       <c r="E17" s="81" t="s">
-        <v>39</v>
-      </c>
-      <c r="F17" s="82"/>
+        <v>44</v>
+      </c>
+      <c r="F17" s="243">
+        <f>(4-0.75)/4</f>
+        <v>0.8125</v>
+      </c>
       <c r="G17" s="83">
         <v>4</v>
       </c>
-      <c r="H17" s="84"/>
+      <c r="H17" s="84" t="s">
+        <v>45</v>
+      </c>
       <c r="I17" s="72"/>
       <c r="J17" s="73">
         <v>4</v>
@@ -3467,10 +3687,10 @@
       <c r="M17" s="5"/>
     </row>
     <row r="18" spans="1:17" s="30" customFormat="1" ht="15.75">
-      <c r="A18" s="244" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="245"/>
+      <c r="A18" s="248" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="249"/>
       <c r="C18" s="43">
         <f>SUMPRODUCT(C13:C17,D13:D17)</f>
         <v>12</v>
@@ -3482,7 +3702,7 @@
       <c r="E18" s="45"/>
       <c r="F18" s="46">
         <f>SUMPRODUCT(F13:F17,G13:G17)</f>
-        <v>0</v>
+        <v>10.25</v>
       </c>
       <c r="G18" s="47">
         <f>SUM(G13:G17)</f>
@@ -3506,36 +3726,38 @@
       <c r="Q18" s="40"/>
     </row>
     <row r="19" spans="1:17" s="39" customFormat="1" ht="18.399999999999999" customHeight="1">
-      <c r="A19" s="281" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="281"/>
-      <c r="C19" s="242" t="s">
+      <c r="A19" s="285" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="285"/>
+      <c r="C19" s="246" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="243"/>
+      <c r="D19" s="247"/>
       <c r="E19" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="F19" s="242" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="246" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="243"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="242" t="s">
+      <c r="G19" s="247"/>
+      <c r="H19" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" s="246" t="s">
         <v>17</v>
       </c>
-      <c r="J19" s="243"/>
+      <c r="J19" s="247"/>
       <c r="K19" s="42"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
     </row>
-    <row r="20" spans="1:17" ht="90">
+    <row r="20" spans="1:17" ht="30.75">
       <c r="A20" s="29" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C20" s="93">
         <f>1-0.05*4-0.07</f>
@@ -3545,13 +3767,18 @@
         <v>2</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="F20" s="78"/>
+        <v>50</v>
+      </c>
+      <c r="F20" s="78">
+        <f>1-0.1*2</f>
+        <v>0.8</v>
+      </c>
       <c r="G20" s="27">
         <v>2</v>
       </c>
-      <c r="H20" s="28"/>
+      <c r="H20" s="28" t="s">
+        <v>51</v>
+      </c>
       <c r="I20" s="69"/>
       <c r="J20" s="70">
         <v>2</v>
@@ -3560,12 +3787,12 @@
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
     </row>
-    <row r="21" spans="1:17" ht="30">
+    <row r="21" spans="1:17" ht="30.75">
       <c r="A21" s="23" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C21" s="79">
         <f>1-0.2</f>
@@ -3575,13 +3802,18 @@
         <v>3</v>
       </c>
       <c r="E21" s="81" t="s">
-        <v>47</v>
-      </c>
-      <c r="F21" s="82"/>
+        <v>54</v>
+      </c>
+      <c r="F21" s="82">
+        <f>1-0.15-0.2</f>
+        <v>0.64999999999999991</v>
+      </c>
       <c r="G21" s="83">
         <v>3</v>
       </c>
-      <c r="H21" s="84"/>
+      <c r="H21" s="84" t="s">
+        <v>55</v>
+      </c>
       <c r="I21" s="72"/>
       <c r="J21" s="73">
         <v>3</v>
@@ -3590,12 +3822,12 @@
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
     </row>
-    <row r="22" spans="1:17" ht="165">
+    <row r="22" spans="1:17" ht="137.25">
       <c r="A22" s="23" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="C22" s="79">
         <f>1-0.05*9-0.02</f>
@@ -3605,13 +3837,18 @@
         <v>3</v>
       </c>
       <c r="E22" s="81" t="s">
-        <v>50</v>
-      </c>
-      <c r="F22" s="82"/>
+        <v>58</v>
+      </c>
+      <c r="F22" s="82">
+        <f>1-0.05*9</f>
+        <v>0.55000000000000004</v>
+      </c>
       <c r="G22" s="83">
         <v>3</v>
       </c>
-      <c r="H22" s="84"/>
+      <c r="H22" s="84" t="s">
+        <v>59</v>
+      </c>
       <c r="I22" s="72"/>
       <c r="J22" s="73">
         <v>3</v>
@@ -3621,10 +3858,10 @@
       <c r="M22" s="5"/>
     </row>
     <row r="23" spans="1:17" s="40" customFormat="1" ht="15.75">
-      <c r="A23" s="282" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="264"/>
+      <c r="A23" s="286" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="268"/>
       <c r="C23" s="53">
         <f>SUMPRODUCT(C20:C22,D20:D22)</f>
         <v>5.45</v>
@@ -3636,7 +3873,7 @@
       <c r="E23" s="55"/>
       <c r="F23" s="56">
         <f>SUMPRODUCT(F20:F22,G20:G22)</f>
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="G23" s="57">
         <f>SUM(G20:G22)</f>
@@ -3657,35 +3894,37 @@
     </row>
     <row r="24" spans="1:17" ht="18.75" customHeight="1">
       <c r="A24" s="41" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="B24" s="41"/>
-      <c r="C24" s="242" t="s">
+      <c r="C24" s="246" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="243"/>
+      <c r="D24" s="247"/>
       <c r="E24" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="F24" s="242" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" s="246" t="s">
         <v>17</v>
       </c>
-      <c r="G24" s="243"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="242" t="s">
+      <c r="G24" s="247"/>
+      <c r="H24" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" s="246" t="s">
         <v>17</v>
       </c>
-      <c r="J24" s="243"/>
+      <c r="J24" s="247"/>
       <c r="K24" s="42"/>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
     </row>
-    <row r="25" spans="1:17" ht="30">
+    <row r="25" spans="1:17" ht="30.75">
       <c r="A25" s="38" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="B25" s="38" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C25" s="93">
         <f>1-0.3-0.5</f>
@@ -3695,13 +3934,18 @@
         <v>2</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="F25" s="78"/>
+        <v>63</v>
+      </c>
+      <c r="F25" s="78">
+        <f>1-0.5</f>
+        <v>0.5</v>
+      </c>
       <c r="G25" s="27">
         <v>2</v>
       </c>
-      <c r="H25" s="28"/>
+      <c r="H25" s="28" t="s">
+        <v>64</v>
+      </c>
       <c r="I25" s="69"/>
       <c r="J25" s="70">
         <v>2</v>
@@ -3712,10 +3956,10 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="23" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C26" s="79">
         <v>1</v>
@@ -3724,7 +3968,9 @@
         <v>1</v>
       </c>
       <c r="E26" s="81"/>
-      <c r="F26" s="82"/>
+      <c r="F26" s="82">
+        <v>1</v>
+      </c>
       <c r="G26" s="83">
         <v>1</v>
       </c>
@@ -3739,10 +3985,10 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="23" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C27" s="79">
         <v>1</v>
@@ -3751,7 +3997,9 @@
         <v>1</v>
       </c>
       <c r="E27" s="81"/>
-      <c r="F27" s="82"/>
+      <c r="F27" s="82">
+        <v>1</v>
+      </c>
       <c r="G27" s="83">
         <v>1</v>
       </c>
@@ -3765,10 +4013,10 @@
       <c r="M27" s="5"/>
     </row>
     <row r="28" spans="1:17" s="40" customFormat="1" ht="15.75">
-      <c r="A28" s="263" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" s="264"/>
+      <c r="A28" s="267" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="268"/>
       <c r="C28" s="43">
         <f>SUMPRODUCT(C25:C27,D25:D27)</f>
         <v>2.4</v>
@@ -3780,7 +4028,7 @@
       <c r="E28" s="45"/>
       <c r="F28" s="56">
         <f>SUMPRODUCT(F25:F27,G25:G27)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G28" s="57">
         <f>SUM(G25:G27)</f>
@@ -3800,36 +4048,38 @@
       <c r="M28" s="52"/>
     </row>
     <row r="29" spans="1:17" ht="21" customHeight="1">
-      <c r="A29" s="281" t="s">
-        <v>59</v>
-      </c>
-      <c r="B29" s="281"/>
-      <c r="C29" s="242" t="s">
+      <c r="A29" s="285" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="285"/>
+      <c r="C29" s="246" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="243"/>
+      <c r="D29" s="247"/>
       <c r="E29" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="F29" s="242" t="s">
+        <v>47</v>
+      </c>
+      <c r="F29" s="246" t="s">
         <v>17</v>
       </c>
-      <c r="G29" s="243"/>
-      <c r="H29" s="62"/>
-      <c r="I29" s="242" t="s">
+      <c r="G29" s="247"/>
+      <c r="H29" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" s="246" t="s">
         <v>17</v>
       </c>
-      <c r="J29" s="243"/>
+      <c r="J29" s="247"/>
       <c r="K29" s="42"/>
       <c r="L29" s="9"/>
       <c r="M29" s="4"/>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="31" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B30" s="31" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C30" s="75">
         <v>1</v>
@@ -3838,7 +4088,9 @@
         <v>2</v>
       </c>
       <c r="E30" s="77"/>
-      <c r="F30" s="85"/>
+      <c r="F30" s="85">
+        <v>1</v>
+      </c>
       <c r="G30" s="86">
         <v>2</v>
       </c>
@@ -3853,10 +4105,10 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="24" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C31" s="79">
         <v>1</v>
@@ -3865,7 +4117,9 @@
         <v>2</v>
       </c>
       <c r="E31" s="81"/>
-      <c r="F31" s="82"/>
+      <c r="F31" s="82">
+        <v>1</v>
+      </c>
       <c r="G31" s="83">
         <v>2</v>
       </c>
@@ -3878,12 +4132,12 @@
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
     </row>
-    <row r="32" spans="1:17" ht="75">
+    <row r="32" spans="1:17" ht="76.5">
       <c r="A32" s="24" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="C32" s="79">
         <v>1</v>
@@ -3892,13 +4146,18 @@
         <v>2</v>
       </c>
       <c r="E32" s="81" t="s">
-        <v>66</v>
-      </c>
-      <c r="F32" s="82"/>
+        <v>76</v>
+      </c>
+      <c r="F32" s="82">
+        <f>1-0.1*2</f>
+        <v>0.8</v>
+      </c>
       <c r="G32" s="83">
         <v>2</v>
       </c>
-      <c r="H32" s="92"/>
+      <c r="H32" s="92" t="s">
+        <v>77</v>
+      </c>
       <c r="I32" s="72"/>
       <c r="J32" s="73">
         <v>2</v>
@@ -3907,12 +4166,12 @@
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
     </row>
-    <row r="33" spans="1:13" ht="30">
+    <row r="33" spans="1:13" ht="45.75">
       <c r="A33" s="24" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="C33" s="79">
         <v>1</v>
@@ -3921,11 +4180,16 @@
         <v>3</v>
       </c>
       <c r="E33" s="81"/>
-      <c r="F33" s="82"/>
+      <c r="F33" s="82">
+        <f>1-0.25-0.1</f>
+        <v>0.65</v>
+      </c>
       <c r="G33" s="83">
         <v>3</v>
       </c>
-      <c r="H33" s="92"/>
+      <c r="H33" s="92" t="s">
+        <v>80</v>
+      </c>
       <c r="I33" s="72"/>
       <c r="J33" s="73">
         <v>3</v>
@@ -3935,10 +4199,10 @@
       <c r="M33" s="5"/>
     </row>
     <row r="34" spans="1:13" s="40" customFormat="1" ht="15.75">
-      <c r="A34" s="244" t="s">
-        <v>24</v>
-      </c>
-      <c r="B34" s="245"/>
+      <c r="A34" s="248" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" s="249"/>
       <c r="C34" s="43">
         <f>SUMPRODUCT(C30:C33,D30:D33)</f>
         <v>9</v>
@@ -3950,7 +4214,7 @@
       <c r="E34" s="45"/>
       <c r="F34" s="46">
         <f>SUMPRODUCT(F30:F33,G30:G33)</f>
-        <v>0</v>
+        <v>7.55</v>
       </c>
       <c r="G34" s="47">
         <f>SUM(G30:G33)</f>
@@ -3970,22 +4234,24 @@
       <c r="M34" s="52"/>
     </row>
     <row r="35" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A35" s="249" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" s="249"/>
-      <c r="C35" s="242" t="s">
+      <c r="A35" s="253" t="s">
+        <v>81</v>
+      </c>
+      <c r="B35" s="253"/>
+      <c r="C35" s="246" t="s">
         <v>17</v>
       </c>
-      <c r="D35" s="243"/>
+      <c r="D35" s="247"/>
       <c r="E35" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="F35" s="242" t="s">
+      <c r="F35" s="246" t="s">
         <v>17</v>
       </c>
-      <c r="G35" s="243"/>
-      <c r="H35" s="42"/>
+      <c r="G35" s="247"/>
+      <c r="H35" s="42" t="s">
+        <v>18</v>
+      </c>
       <c r="I35" s="64" t="s">
         <v>17</v>
       </c>
@@ -3994,12 +4260,12 @@
       <c r="L35" s="8"/>
       <c r="M35" s="4"/>
     </row>
-    <row r="36" spans="1:13" ht="30">
+    <row r="36" spans="1:13" ht="30.75">
       <c r="A36" s="29" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="C36" s="75">
         <f>2/2</f>
@@ -4009,7 +4275,10 @@
         <v>2</v>
       </c>
       <c r="E36" s="77"/>
-      <c r="F36" s="85"/>
+      <c r="F36" s="85">
+        <f>3/3</f>
+        <v>1</v>
+      </c>
       <c r="G36" s="86">
         <v>2</v>
       </c>
@@ -4022,12 +4291,12 @@
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
     </row>
-    <row r="37" spans="1:13" ht="30">
+    <row r="37" spans="1:13">
       <c r="A37" s="23" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="C37" s="79">
         <f>2/2</f>
@@ -4037,11 +4306,16 @@
         <v>2</v>
       </c>
       <c r="E37" s="81"/>
-      <c r="F37" s="82"/>
+      <c r="F37" s="243">
+        <f>(2-0.25)/2</f>
+        <v>0.875</v>
+      </c>
       <c r="G37" s="83">
         <v>2</v>
       </c>
-      <c r="H37" s="84"/>
+      <c r="H37" s="84" t="s">
+        <v>86</v>
+      </c>
       <c r="I37" s="72"/>
       <c r="J37" s="73">
         <v>2</v>
@@ -4050,14 +4324,14 @@
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
     </row>
-    <row r="38" spans="1:13" ht="30">
+    <row r="38" spans="1:13" ht="121.5">
       <c r="A38" s="23" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="C38" s="207">
+        <v>88</v>
+      </c>
+      <c r="C38" s="206">
         <f>(3-0.25*2)/3</f>
         <v>0.83333333333333337</v>
       </c>
@@ -4065,13 +4339,18 @@
         <v>3</v>
       </c>
       <c r="E38" s="81" t="s">
-        <v>76</v>
-      </c>
-      <c r="F38" s="82"/>
+        <v>89</v>
+      </c>
+      <c r="F38" s="82">
+        <f>(3-0.5-0.25*7)/3</f>
+        <v>0.25</v>
+      </c>
       <c r="G38" s="83">
         <v>3</v>
       </c>
-      <c r="H38" s="84"/>
+      <c r="H38" s="84" t="s">
+        <v>90</v>
+      </c>
       <c r="I38" s="72"/>
       <c r="J38" s="73">
         <v>3</v>
@@ -4080,14 +4359,14 @@
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
     </row>
-    <row r="39" spans="1:13" ht="45">
+    <row r="39" spans="1:13" ht="106.5">
       <c r="A39" s="23" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="C39" s="207">
+        <v>92</v>
+      </c>
+      <c r="C39" s="206">
         <f>(3-0.25)/3</f>
         <v>0.91666666666666663</v>
       </c>
@@ -4095,13 +4374,18 @@
         <v>3</v>
       </c>
       <c r="E39" s="81" t="s">
-        <v>79</v>
-      </c>
-      <c r="F39" s="82"/>
+        <v>93</v>
+      </c>
+      <c r="F39" s="243">
+        <f>(3-7*0.25)/3</f>
+        <v>0.41666666666666669</v>
+      </c>
       <c r="G39" s="83">
         <v>3</v>
       </c>
-      <c r="H39" s="84"/>
+      <c r="H39" s="84" t="s">
+        <v>94</v>
+      </c>
       <c r="I39" s="72"/>
       <c r="J39" s="73">
         <v>3</v>
@@ -4111,10 +4395,10 @@
       <c r="M39" s="5"/>
     </row>
     <row r="40" spans="1:13" s="40" customFormat="1" ht="15.75">
-      <c r="A40" s="244" t="s">
-        <v>24</v>
-      </c>
-      <c r="B40" s="245"/>
+      <c r="A40" s="248" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" s="249"/>
       <c r="C40" s="65">
         <f>SUMPRODUCT(C36:C39,D36:D39)</f>
         <v>9.25</v>
@@ -4126,7 +4410,7 @@
       <c r="E40" s="45"/>
       <c r="F40" s="66">
         <f>SUMPRODUCT(F36:F39,G36:G39)</f>
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="G40" s="47">
         <f>SUM(G36:G39)</f>
@@ -4147,33 +4431,35 @@
     </row>
     <row r="41" spans="1:13" ht="18.75" customHeight="1">
       <c r="A41" s="41" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="B41" s="41"/>
-      <c r="C41" s="242" t="s">
+      <c r="C41" s="246" t="s">
         <v>17</v>
       </c>
-      <c r="D41" s="243"/>
+      <c r="D41" s="247"/>
       <c r="E41" s="62"/>
-      <c r="F41" s="242" t="s">
+      <c r="F41" s="246" t="s">
         <v>17</v>
       </c>
-      <c r="G41" s="243"/>
-      <c r="H41" s="42"/>
-      <c r="I41" s="242" t="s">
+      <c r="G41" s="247"/>
+      <c r="H41" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="I41" s="246" t="s">
         <v>17</v>
       </c>
-      <c r="J41" s="243"/>
+      <c r="J41" s="247"/>
       <c r="K41" s="42"/>
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
     </row>
-    <row r="42" spans="1:13" ht="60">
+    <row r="42" spans="1:13" ht="60.75">
       <c r="A42" s="23" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="C42" s="79">
         <v>1</v>
@@ -4182,7 +4468,9 @@
         <v>2</v>
       </c>
       <c r="E42" s="81"/>
-      <c r="F42" s="82"/>
+      <c r="F42" s="82">
+        <v>1</v>
+      </c>
       <c r="G42" s="83">
         <v>2</v>
       </c>
@@ -4197,10 +4485,10 @@
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="23" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="C43" s="79">
         <v>0.5</v>
@@ -4209,13 +4497,17 @@
         <v>2</v>
       </c>
       <c r="E43" s="81" t="s">
-        <v>85</v>
-      </c>
-      <c r="F43" s="82"/>
+        <v>101</v>
+      </c>
+      <c r="F43" s="82">
+        <v>0.75</v>
+      </c>
       <c r="G43" s="83">
         <v>2</v>
       </c>
-      <c r="H43" s="84"/>
+      <c r="H43" s="84" t="s">
+        <v>102</v>
+      </c>
       <c r="I43" s="72"/>
       <c r="J43" s="73">
         <v>2</v>
@@ -4224,12 +4516,12 @@
       <c r="L43" s="5"/>
       <c r="M43" s="5"/>
     </row>
-    <row r="44" spans="1:13" ht="30">
+    <row r="44" spans="1:13">
       <c r="A44" s="23" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="C44" s="79">
         <v>0.5</v>
@@ -4238,9 +4530,11 @@
         <v>2</v>
       </c>
       <c r="E44" s="81" t="s">
-        <v>88</v>
-      </c>
-      <c r="F44" s="82"/>
+        <v>105</v>
+      </c>
+      <c r="F44" s="82">
+        <v>1</v>
+      </c>
       <c r="G44" s="83">
         <v>2</v>
       </c>
@@ -4254,10 +4548,10 @@
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="23" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="C45" s="79">
         <v>1</v>
@@ -4266,11 +4560,16 @@
         <v>4</v>
       </c>
       <c r="E45" s="81"/>
-      <c r="F45" s="82"/>
+      <c r="F45" s="82">
+        <f>3.5/4</f>
+        <v>0.875</v>
+      </c>
       <c r="G45" s="83">
         <v>4</v>
       </c>
-      <c r="H45" s="84"/>
+      <c r="H45" s="84" t="s">
+        <v>108</v>
+      </c>
       <c r="I45" s="72"/>
       <c r="J45" s="73">
         <v>4</v>
@@ -4279,12 +4578,12 @@
       <c r="L45" s="5"/>
       <c r="M45" s="5"/>
     </row>
-    <row r="46" spans="1:13" ht="45">
+    <row r="46" spans="1:13">
       <c r="A46" s="23" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="C46" s="79">
         <v>0.5</v>
@@ -4293,13 +4592,18 @@
         <v>6</v>
       </c>
       <c r="E46" s="81" t="s">
-        <v>93</v>
-      </c>
-      <c r="F46" s="82"/>
+        <v>111</v>
+      </c>
+      <c r="F46" s="82">
+        <f>5.5/6</f>
+        <v>0.91666666666666663</v>
+      </c>
       <c r="G46" s="83">
         <v>6</v>
       </c>
-      <c r="H46" s="84"/>
+      <c r="H46" s="84" t="s">
+        <v>112</v>
+      </c>
       <c r="I46" s="72"/>
       <c r="J46" s="73">
         <v>6</v>
@@ -4308,12 +4612,12 @@
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
     </row>
-    <row r="47" spans="1:13" ht="60">
+    <row r="47" spans="1:13" ht="60.75">
       <c r="A47" s="23" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="C47" s="79">
         <f>4/10</f>
@@ -4323,13 +4627,18 @@
         <v>10</v>
       </c>
       <c r="E47" s="81" t="s">
-        <v>96</v>
-      </c>
-      <c r="F47" s="82"/>
+        <v>115</v>
+      </c>
+      <c r="F47" s="82">
+        <f>0.6</f>
+        <v>0.6</v>
+      </c>
       <c r="G47" s="83">
         <v>10</v>
       </c>
-      <c r="H47" s="84"/>
+      <c r="H47" s="84" t="s">
+        <v>116</v>
+      </c>
       <c r="I47" s="72"/>
       <c r="J47" s="73">
         <v>10</v>
@@ -4338,14 +4647,14 @@
       <c r="L47" s="5"/>
       <c r="M47" s="5"/>
     </row>
-    <row r="48" spans="1:13" ht="120">
+    <row r="48" spans="1:13" ht="76.5">
       <c r="A48" s="23" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="C48" s="207">
+        <v>118</v>
+      </c>
+      <c r="C48" s="206">
         <f>3.5/6</f>
         <v>0.58333333333333337</v>
       </c>
@@ -4353,13 +4662,17 @@
         <v>6</v>
       </c>
       <c r="E48" s="81" t="s">
-        <v>99</v>
-      </c>
-      <c r="F48" s="82"/>
+        <v>119</v>
+      </c>
+      <c r="F48" s="82">
+        <v>0</v>
+      </c>
       <c r="G48" s="83">
         <v>6</v>
       </c>
-      <c r="H48" s="84"/>
+      <c r="H48" s="84" t="s">
+        <v>120</v>
+      </c>
       <c r="I48" s="72"/>
       <c r="J48" s="73">
         <v>6</v>
@@ -4370,10 +4683,10 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="13" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="C49" s="79">
         <v>1</v>
@@ -4382,7 +4695,9 @@
         <v>3</v>
       </c>
       <c r="E49" s="81"/>
-      <c r="F49" s="82"/>
+      <c r="F49" s="82">
+        <v>1</v>
+      </c>
       <c r="G49" s="83">
         <v>3</v>
       </c>
@@ -4396,10 +4711,10 @@
       <c r="M49" s="5"/>
     </row>
     <row r="50" spans="1:17" s="30" customFormat="1" ht="15.75">
-      <c r="A50" s="244" t="s">
-        <v>24</v>
-      </c>
-      <c r="B50" s="245"/>
+      <c r="A50" s="248" t="s">
+        <v>26</v>
+      </c>
+      <c r="B50" s="249"/>
       <c r="C50" s="67">
         <f>SUMPRODUCT(C42:C49,D42:D49)</f>
         <v>21.5</v>
@@ -4411,7 +4726,7 @@
       <c r="E50" s="55"/>
       <c r="F50" s="66">
         <f>SUMPRODUCT(F42:F49,G42:G49)</f>
-        <v>0</v>
+        <v>23.5</v>
       </c>
       <c r="G50" s="47">
         <f>SUM(G42:G49)</f>
@@ -4435,36 +4750,38 @@
       <c r="Q50" s="40"/>
     </row>
     <row r="51" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A51" s="249" t="s">
-        <v>102</v>
-      </c>
-      <c r="B51" s="249"/>
-      <c r="C51" s="242" t="s">
+      <c r="A51" s="253" t="s">
+        <v>123</v>
+      </c>
+      <c r="B51" s="253"/>
+      <c r="C51" s="246" t="s">
         <v>17</v>
       </c>
-      <c r="D51" s="243"/>
+      <c r="D51" s="247"/>
       <c r="E51" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="F51" s="242" t="s">
+      <c r="F51" s="246" t="s">
         <v>17</v>
       </c>
-      <c r="G51" s="243"/>
-      <c r="H51" s="42"/>
-      <c r="I51" s="242" t="s">
+      <c r="G51" s="247"/>
+      <c r="H51" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="I51" s="246" t="s">
         <v>17</v>
       </c>
-      <c r="J51" s="243"/>
+      <c r="J51" s="247"/>
       <c r="K51" s="42"/>
       <c r="L51" s="8"/>
       <c r="M51" s="4"/>
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="29" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="B52" s="29" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="C52" s="75">
         <f>2/2</f>
@@ -4474,9 +4791,12 @@
         <v>2</v>
       </c>
       <c r="E52" s="77" t="s">
-        <v>105</v>
-      </c>
-      <c r="F52" s="78"/>
+        <v>126</v>
+      </c>
+      <c r="F52" s="78">
+        <f>2/2</f>
+        <v>1</v>
+      </c>
       <c r="G52" s="27">
         <v>2</v>
       </c>
@@ -4491,10 +4811,10 @@
     </row>
     <row r="53" spans="1:17" ht="30">
       <c r="A53" s="23" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="C53" s="79">
         <f>2/2</f>
@@ -4504,9 +4824,12 @@
         <v>2</v>
       </c>
       <c r="E53" s="81" t="s">
-        <v>108</v>
-      </c>
-      <c r="F53" s="82"/>
+        <v>129</v>
+      </c>
+      <c r="F53" s="82">
+        <f>2/2</f>
+        <v>1</v>
+      </c>
       <c r="G53" s="83">
         <v>2</v>
       </c>
@@ -4519,12 +4842,12 @@
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
     </row>
-    <row r="54" spans="1:17" ht="30">
+    <row r="54" spans="1:17" ht="30.75">
       <c r="A54" s="23" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="C54" s="79">
         <f>1/1</f>
@@ -4534,11 +4857,16 @@
         <v>1</v>
       </c>
       <c r="E54" s="81"/>
-      <c r="F54" s="82"/>
+      <c r="F54" s="82">
+        <f>0/1</f>
+        <v>0</v>
+      </c>
       <c r="G54" s="83">
         <v>1</v>
       </c>
-      <c r="H54" s="84"/>
+      <c r="H54" s="84" t="s">
+        <v>132</v>
+      </c>
       <c r="I54" s="72"/>
       <c r="J54" s="73">
         <v>1</v>
@@ -4549,12 +4877,12 @@
     </row>
     <row r="55" spans="1:17" ht="60">
       <c r="A55" s="23" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="B55" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="C55" s="207">
+        <v>134</v>
+      </c>
+      <c r="C55" s="206">
         <f>(4-2.5)/4</f>
         <v>0.375</v>
       </c>
@@ -4562,9 +4890,12 @@
         <v>4</v>
       </c>
       <c r="E55" s="81" t="s">
-        <v>113</v>
-      </c>
-      <c r="F55" s="82"/>
+        <v>135</v>
+      </c>
+      <c r="F55" s="82">
+        <f>4/4</f>
+        <v>1</v>
+      </c>
       <c r="G55" s="83">
         <v>4</v>
       </c>
@@ -4579,10 +4910,10 @@
     </row>
     <row r="56" spans="1:17" ht="30">
       <c r="A56" s="23" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="B56" s="23" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="C56" s="79">
         <f>2/2</f>
@@ -4592,7 +4923,10 @@
         <v>2</v>
       </c>
       <c r="E56" s="81"/>
-      <c r="F56" s="82"/>
+      <c r="F56" s="82">
+        <f>2/2</f>
+        <v>1</v>
+      </c>
       <c r="G56" s="83">
         <v>2</v>
       </c>
@@ -4606,10 +4940,10 @@
       <c r="M56" s="5"/>
     </row>
     <row r="57" spans="1:17" s="40" customFormat="1" ht="15.75">
-      <c r="A57" s="244" t="s">
-        <v>24</v>
-      </c>
-      <c r="B57" s="245"/>
+      <c r="A57" s="248" t="s">
+        <v>26</v>
+      </c>
+      <c r="B57" s="249"/>
       <c r="C57" s="53">
         <f>SUMPRODUCT(C52:C56,D52:D56)</f>
         <v>8.5</v>
@@ -4621,7 +4955,7 @@
       <c r="E57" s="55"/>
       <c r="F57" s="56">
         <f>SUMPRODUCT(F52:F56,G52:G56)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G57" s="57">
         <f>SUM(G52:G56)</f>
@@ -4641,80 +4975,80 @@
       <c r="M57" s="52"/>
     </row>
     <row r="58" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A58" s="246" t="s">
+      <c r="A58" s="250" t="s">
         <v>2</v>
       </c>
-      <c r="B58" s="247"/>
-      <c r="C58" s="247"/>
-      <c r="D58" s="247"/>
-      <c r="E58" s="247"/>
-      <c r="F58" s="247"/>
-      <c r="G58" s="247"/>
-      <c r="H58" s="247"/>
-      <c r="I58" s="247"/>
-      <c r="J58" s="247"/>
-      <c r="K58" s="248"/>
+      <c r="B58" s="251"/>
+      <c r="C58" s="251"/>
+      <c r="D58" s="251"/>
+      <c r="E58" s="251"/>
+      <c r="F58" s="251"/>
+      <c r="G58" s="251"/>
+      <c r="H58" s="251"/>
+      <c r="I58" s="251"/>
+      <c r="J58" s="251"/>
+      <c r="K58" s="252"/>
       <c r="L58" s="4"/>
       <c r="M58" s="4"/>
     </row>
-    <row r="59" spans="1:17" s="237" customFormat="1">
-      <c r="A59" s="250" t="s">
-        <v>116</v>
-      </c>
-      <c r="B59" s="251"/>
-      <c r="C59" s="227">
+    <row r="59" spans="1:17" s="235" customFormat="1">
+      <c r="A59" s="254" t="s">
+        <v>138</v>
+      </c>
+      <c r="B59" s="255"/>
+      <c r="C59" s="225">
         <f>C18+C23+C28+C34+C40+C50+C57+C11</f>
         <v>75.099999999999994</v>
       </c>
-      <c r="D59" s="228">
+      <c r="D59" s="226">
         <f>D11+D18+D23+D28+D34+D40+D50+D57</f>
         <v>100</v>
       </c>
-      <c r="E59" s="229"/>
-      <c r="F59" s="230">
+      <c r="E59" s="227"/>
+      <c r="F59" s="228">
         <f>F18+F23+F28+F34+F40+F50+F57</f>
-        <v>0</v>
-      </c>
-      <c r="G59" s="231">
+        <v>65.25</v>
+      </c>
+      <c r="G59" s="229">
         <f>G11+G18+G23+G28+G34+G40+G50+G57</f>
         <v>100</v>
       </c>
-      <c r="H59" s="232"/>
-      <c r="I59" s="233">
+      <c r="H59" s="230"/>
+      <c r="I59" s="231">
         <f>I18+I23+I28+I34+I40+I50+I57</f>
         <v>0</v>
       </c>
-      <c r="J59" s="234">
+      <c r="J59" s="232">
         <f>J11+J18+J23+J28+J34+J40+J50+J57</f>
         <v>100</v>
       </c>
-      <c r="K59" s="235"/>
-      <c r="L59" s="236"/>
-      <c r="M59" s="236"/>
+      <c r="K59" s="233"/>
+      <c r="L59" s="234"/>
+      <c r="M59" s="234"/>
     </row>
     <row r="60" spans="1:17" s="40" customFormat="1" ht="15.75">
-      <c r="A60" s="252" t="s">
-        <v>117</v>
-      </c>
-      <c r="B60" s="253"/>
-      <c r="C60" s="254">
+      <c r="A60" s="256" t="s">
+        <v>139</v>
+      </c>
+      <c r="B60" s="257"/>
+      <c r="C60" s="258">
         <f>C59/D59</f>
         <v>0.75099999999999989</v>
       </c>
-      <c r="D60" s="255"/>
-      <c r="E60" s="256"/>
-      <c r="F60" s="257">
+      <c r="D60" s="259"/>
+      <c r="E60" s="260"/>
+      <c r="F60" s="261">
         <f>F59/G59</f>
-        <v>0</v>
-      </c>
-      <c r="G60" s="258"/>
-      <c r="H60" s="259"/>
-      <c r="I60" s="260">
+        <v>0.65249999999999997</v>
+      </c>
+      <c r="G60" s="262"/>
+      <c r="H60" s="263"/>
+      <c r="I60" s="264">
         <f>I59/J59</f>
         <v>0</v>
       </c>
-      <c r="J60" s="261"/>
-      <c r="K60" s="262"/>
+      <c r="J60" s="265"/>
+      <c r="K60" s="266"/>
       <c r="L60" s="68"/>
       <c r="M60" s="68"/>
     </row>
@@ -4792,8 +5126,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A2:G54"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -4809,15 +5143,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="18.75">
-      <c r="A2" s="283" t="s">
+      <c r="A2" s="287" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="283"/>
-      <c r="C2" s="283"/>
-      <c r="D2" s="283"/>
-      <c r="E2" s="283"/>
-      <c r="F2" s="283"/>
-      <c r="G2" s="283"/>
+      <c r="B2" s="287"/>
+      <c r="C2" s="287"/>
+      <c r="D2" s="287"/>
+      <c r="E2" s="287"/>
+      <c r="F2" s="287"/>
+      <c r="G2" s="287"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="34"/>
@@ -4830,7 +5164,7 @@
     </row>
     <row r="4" spans="1:7" ht="18.75">
       <c r="A4" s="32" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="B4" s="32"/>
       <c r="C4" s="32"/>
@@ -4841,31 +5175,31 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1"/>
     <row r="6" spans="1:7" ht="23.25">
-      <c r="A6" s="287" t="s">
+      <c r="A6" s="291" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="288"/>
-      <c r="C6" s="288"/>
-      <c r="D6" s="288"/>
-      <c r="E6" s="288"/>
-      <c r="F6" s="288"/>
-      <c r="G6" s="289"/>
+      <c r="B6" s="292"/>
+      <c r="C6" s="292"/>
+      <c r="D6" s="292"/>
+      <c r="E6" s="292"/>
+      <c r="F6" s="292"/>
+      <c r="G6" s="293"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="117" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="B7" s="118" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="118" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="D7" s="118" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="118" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="F7" s="118" t="s">
         <v>17</v>
@@ -4876,7 +5210,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="120" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="B8" s="121">
         <v>1</v>
@@ -4892,15 +5226,15 @@
         <v>4</v>
       </c>
       <c r="F8" s="121" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="G8" s="122"/>
     </row>
     <row r="9" spans="1:7" ht="150">
       <c r="A9" s="123" t="s">
-        <v>124</v>
-      </c>
-      <c r="B9" s="239">
+        <v>145</v>
+      </c>
+      <c r="B9" s="237">
         <f>(8-3)/8</f>
         <v>0.625</v>
       </c>
@@ -4917,13 +5251,13 @@
       <c r="F9" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="238" t="s">
-        <v>125</v>
+      <c r="G9" s="236" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="120">
       <c r="A10" s="120" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="B10" s="121">
         <f>18/20</f>
@@ -4940,15 +5274,15 @@
         <v>18</v>
       </c>
       <c r="F10" s="121" t="s">
-        <v>123</v>
-      </c>
-      <c r="G10" s="240" t="s">
-        <v>127</v>
+        <v>96</v>
+      </c>
+      <c r="G10" s="238" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="165">
       <c r="A11" s="123" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="B11" s="124">
         <f>(10-2)/10</f>
@@ -4967,13 +5301,13 @@
       <c r="F11" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="238" t="s">
-        <v>129</v>
+      <c r="G11" s="236" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="120">
       <c r="A12" s="120" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="B12" s="121">
         <f>1-0.05</f>
@@ -4990,15 +5324,15 @@
         <v>9.5</v>
       </c>
       <c r="F12" s="121" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" s="240" t="s">
-        <v>131</v>
+        <v>47</v>
+      </c>
+      <c r="G12" s="238" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="90">
       <c r="A13" s="120" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="B13" s="121">
         <f>1-0.05-0.1</f>
@@ -5015,17 +5349,17 @@
         <v>9.69</v>
       </c>
       <c r="F13" s="121" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" s="240" t="s">
-        <v>133</v>
+        <v>47</v>
+      </c>
+      <c r="G13" s="238" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="180">
       <c r="A14" s="123" t="s">
-        <v>134</v>
-      </c>
-      <c r="B14" s="239">
+        <v>155</v>
+      </c>
+      <c r="B14" s="237">
         <f>(12-0.5)/12</f>
         <v>0.95833333333333337</v>
       </c>
@@ -5035,20 +5369,20 @@
       <c r="D14" s="124">
         <v>12</v>
       </c>
-      <c r="E14" s="239">
+      <c r="E14" s="237">
         <f t="shared" si="0"/>
         <v>8.625</v>
       </c>
       <c r="F14" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="238" t="s">
-        <v>135</v>
+      <c r="G14" s="236" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="45">
       <c r="A15" s="120" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="B15" s="121">
         <f>8.5/10</f>
@@ -5065,15 +5399,15 @@
         <v>8.5</v>
       </c>
       <c r="F15" s="121" t="s">
-        <v>123</v>
-      </c>
-      <c r="G15" s="240" t="s">
-        <v>137</v>
+        <v>96</v>
+      </c>
+      <c r="G15" s="238" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="60">
       <c r="A16" s="123" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="B16" s="124">
         <f>1-0.1</f>
@@ -5090,19 +5424,19 @@
         <v>7.2</v>
       </c>
       <c r="F16" s="124" t="s">
-        <v>41</v>
-      </c>
-      <c r="G16" s="238" t="s">
-        <v>139</v>
+        <v>47</v>
+      </c>
+      <c r="G16" s="236" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="60">
       <c r="A17" s="125" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="B17" s="126">
-        <f>1-0.1-0.05</f>
-        <v>0.85</v>
+        <f>1-0.1</f>
+        <v>0.9</v>
       </c>
       <c r="C17" s="126">
         <v>1</v>
@@ -5112,35 +5446,35 @@
       </c>
       <c r="E17" s="126">
         <f t="shared" si="0"/>
-        <v>5.0999999999999996</v>
+        <v>5.4</v>
       </c>
       <c r="F17" s="126" t="s">
-        <v>41</v>
-      </c>
-      <c r="G17" s="241" t="s">
-        <v>141</v>
+        <v>47</v>
+      </c>
+      <c r="G17" s="239" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="127" t="s">
-        <v>142</v>
-      </c>
-      <c r="B18" s="290"/>
-      <c r="C18" s="290"/>
+        <v>163</v>
+      </c>
+      <c r="B18" s="294"/>
+      <c r="C18" s="294"/>
       <c r="D18" s="128">
         <f>SUM(D8:D17)</f>
         <v>100</v>
       </c>
       <c r="E18" s="129">
         <f>(SUM(E8:E17)+E20+E21)/D18</f>
-        <v>0.82814999999999994</v>
+        <v>0.83115000000000006</v>
       </c>
       <c r="F18" s="129"/>
       <c r="G18" s="130"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="131" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="B19" s="132" t="s">
         <v>14</v>
@@ -5150,7 +5484,7 @@
         <v>4</v>
       </c>
       <c r="E19" s="133" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="F19" s="133"/>
       <c r="G19" s="134" t="s">
@@ -5159,7 +5493,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="135" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="B20" s="136">
         <v>0</v>
@@ -5177,7 +5511,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="139" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="B21" s="140">
         <v>0</v>
@@ -5194,31 +5528,31 @@
       <c r="G21" s="142"/>
     </row>
     <row r="22" spans="1:7" ht="23.25">
-      <c r="A22" s="291" t="s">
+      <c r="A22" s="295" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="292"/>
-      <c r="C22" s="292"/>
-      <c r="D22" s="292"/>
-      <c r="E22" s="292"/>
-      <c r="F22" s="292"/>
-      <c r="G22" s="293"/>
+      <c r="B22" s="296"/>
+      <c r="C22" s="296"/>
+      <c r="D22" s="296"/>
+      <c r="E22" s="296"/>
+      <c r="F22" s="296"/>
+      <c r="G22" s="297"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="143" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="B23" s="144" t="s">
         <v>14</v>
       </c>
       <c r="C23" s="144" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="D23" s="144" t="s">
         <v>4</v>
       </c>
       <c r="E23" s="144" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="F23" s="144" t="s">
         <v>17</v>
@@ -5229,597 +5563,623 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="146" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="B24" s="147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" s="147">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="D24" s="147">
         <v>20</v>
       </c>
       <c r="E24" s="147">
         <f>B24*C24*D24</f>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F24" s="147"/>
       <c r="G24" s="148"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" ht="91.5">
       <c r="A25" s="149" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="B25" s="150">
-        <v>0</v>
+        <f>6/6</f>
+        <v>1</v>
       </c>
       <c r="C25" s="150">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="D25" s="150">
         <v>6</v>
       </c>
       <c r="E25" s="150">
         <f t="shared" ref="E25:E33" si="1">B25*C25*D25</f>
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="F25" s="150"/>
-      <c r="G25" s="151"/>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="G25" s="240" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="60.75">
       <c r="A26" s="146" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="B26" s="147">
-        <v>0</v>
+        <f>1-0.1</f>
+        <v>0.9</v>
       </c>
       <c r="C26" s="147">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="D26" s="147">
         <v>12</v>
       </c>
       <c r="E26" s="147">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F26" s="147"/>
-      <c r="G26" s="148"/>
+        <v>10.26</v>
+      </c>
+      <c r="F26" s="147" t="s">
+        <v>47</v>
+      </c>
+      <c r="G26" s="241" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="149" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
       <c r="B27" s="150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" s="150">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="D27" s="150">
         <v>8</v>
       </c>
       <c r="E27" s="150">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="F27" s="150"/>
       <c r="G27" s="151"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="146" t="s">
-        <v>150</v>
+        <v>173</v>
       </c>
       <c r="B28" s="147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" s="147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" s="147">
         <v>6</v>
       </c>
       <c r="E28" s="147">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F28" s="147"/>
       <c r="G28" s="148"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" ht="213">
       <c r="A29" s="149" t="s">
-        <v>151</v>
-      </c>
-      <c r="B29" s="150">
-        <v>0</v>
+        <v>174</v>
+      </c>
+      <c r="B29" s="242">
+        <f>(14-0.66)/14</f>
+        <v>0.95285714285714285</v>
       </c>
       <c r="C29" s="150">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="D29" s="150">
         <v>14</v>
       </c>
-      <c r="E29" s="150">
+      <c r="E29" s="242">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10.672000000000001</v>
       </c>
       <c r="F29" s="150"/>
-      <c r="G29" s="151"/>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="G29" s="240" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="76.5">
       <c r="A30" s="146" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="B30" s="147">
-        <v>0</v>
+        <f>1-0.15-0.15</f>
+        <v>0.7</v>
       </c>
       <c r="C30" s="147">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="D30" s="147">
         <v>12</v>
       </c>
       <c r="E30" s="147">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F30" s="147"/>
-      <c r="G30" s="148"/>
-    </row>
-    <row r="31" spans="1:7">
+        <v>7.9799999999999986</v>
+      </c>
+      <c r="F30" s="147" t="s">
+        <v>47</v>
+      </c>
+      <c r="G30" s="241" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="91.5">
       <c r="A31" s="149" t="s">
-        <v>153</v>
-      </c>
-      <c r="B31" s="150">
-        <v>0</v>
+        <v>178</v>
+      </c>
+      <c r="B31" s="242">
+        <f>(4-0.5)/4</f>
+        <v>0.875</v>
       </c>
       <c r="C31" s="150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" s="150">
         <v>4</v>
       </c>
       <c r="E31" s="150">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="F31" s="150"/>
-      <c r="G31" s="151"/>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="G31" s="240" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="167.25">
       <c r="A32" s="146" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="B32" s="147">
-        <v>0</v>
+        <f>(10-1)/10</f>
+        <v>0.9</v>
       </c>
       <c r="C32" s="147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" s="147">
         <v>10</v>
       </c>
       <c r="E32" s="147">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F32" s="147"/>
-      <c r="G32" s="148"/>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="G32" s="241" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="60.75">
       <c r="A33" s="152" t="s">
-        <v>155</v>
+        <v>182</v>
       </c>
       <c r="B33" s="153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33" s="153">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="D33" s="153">
         <v>8</v>
       </c>
       <c r="E33" s="153">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F33" s="153"/>
-      <c r="G33" s="154"/>
+        <v>7.6</v>
+      </c>
+      <c r="F33" s="153" t="s">
+        <v>47</v>
+      </c>
+      <c r="G33" s="245" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="155" t="s">
-        <v>142</v>
-      </c>
-      <c r="B34" s="156"/>
-      <c r="C34" s="156"/>
-      <c r="D34" s="156">
+      <c r="A34" s="154" t="s">
+        <v>163</v>
+      </c>
+      <c r="B34" s="155"/>
+      <c r="C34" s="155"/>
+      <c r="D34" s="155">
         <f>SUM(D24:D33)</f>
         <v>100</v>
       </c>
-      <c r="E34" s="157">
+      <c r="E34" s="156">
         <f>(SUM(E24:E33) + E36+E37+E38)/D34</f>
+        <v>0.85611999999999999</v>
+      </c>
+      <c r="F34" s="156"/>
+      <c r="G34" s="157"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="158" t="s">
+        <v>164</v>
+      </c>
+      <c r="B35" s="159" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="159"/>
+      <c r="D35" s="159" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="160" t="s">
+        <v>143</v>
+      </c>
+      <c r="F35" s="160"/>
+      <c r="G35" s="161" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="162" t="s">
+        <v>165</v>
+      </c>
+      <c r="B36" s="163">
         <v>0</v>
       </c>
-      <c r="F34" s="157"/>
-      <c r="G34" s="158"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="159" t="s">
-        <v>143</v>
-      </c>
-      <c r="B35" s="160" t="s">
-        <v>14</v>
-      </c>
-      <c r="C35" s="160"/>
-      <c r="D35" s="160" t="s">
-        <v>4</v>
-      </c>
-      <c r="E35" s="161" t="s">
-        <v>121</v>
-      </c>
-      <c r="F35" s="161"/>
-      <c r="G35" s="162" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="163" t="s">
-        <v>144</v>
-      </c>
-      <c r="B36" s="164">
-        <v>0</v>
-      </c>
-      <c r="C36" s="164"/>
-      <c r="D36" s="165">
+      <c r="C36" s="163"/>
+      <c r="D36" s="164">
         <v>-10</v>
       </c>
-      <c r="E36" s="164">
+      <c r="E36" s="163">
         <f>B36*D36</f>
         <v>0</v>
       </c>
-      <c r="F36" s="164"/>
-      <c r="G36" s="166"/>
+      <c r="F36" s="163"/>
+      <c r="G36" s="165"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="167" t="s">
-        <v>156</v>
-      </c>
-      <c r="B37" s="168">
+      <c r="A37" s="166" t="s">
+        <v>184</v>
+      </c>
+      <c r="B37" s="167">
         <v>0</v>
       </c>
-      <c r="C37" s="168"/>
-      <c r="D37" s="169">
+      <c r="C37" s="167"/>
+      <c r="D37" s="168">
         <v>-15</v>
       </c>
-      <c r="E37" s="168">
+      <c r="E37" s="167">
         <f>B37*D37</f>
         <v>0</v>
       </c>
-      <c r="F37" s="168"/>
-      <c r="G37" s="170"/>
+      <c r="F37" s="167"/>
+      <c r="G37" s="169"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="171" t="s">
-        <v>157</v>
-      </c>
-      <c r="B38" s="172">
+      <c r="A38" s="170" t="s">
+        <v>185</v>
+      </c>
+      <c r="B38" s="171">
         <v>0</v>
       </c>
-      <c r="C38" s="172"/>
-      <c r="D38" s="173">
+      <c r="C38" s="171"/>
+      <c r="D38" s="172">
         <v>-5</v>
       </c>
-      <c r="E38" s="172">
+      <c r="E38" s="171">
         <f>B38*D38</f>
         <v>0</v>
       </c>
-      <c r="F38" s="172"/>
-      <c r="G38" s="174"/>
+      <c r="F38" s="171"/>
+      <c r="G38" s="173"/>
     </row>
     <row r="39" spans="1:7" ht="23.25">
-      <c r="A39" s="284" t="s">
+      <c r="A39" s="288" t="s">
         <v>8</v>
       </c>
-      <c r="B39" s="285"/>
-      <c r="C39" s="285"/>
-      <c r="D39" s="285"/>
-      <c r="E39" s="285"/>
-      <c r="F39" s="285"/>
-      <c r="G39" s="286"/>
+      <c r="B39" s="289"/>
+      <c r="C39" s="289"/>
+      <c r="D39" s="289"/>
+      <c r="E39" s="289"/>
+      <c r="F39" s="289"/>
+      <c r="G39" s="290"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="175" t="s">
-        <v>119</v>
-      </c>
-      <c r="B40" s="176" t="s">
+      <c r="A40" s="174" t="s">
+        <v>141</v>
+      </c>
+      <c r="B40" s="175" t="s">
         <v>14</v>
       </c>
-      <c r="C40" s="176" t="s">
-        <v>120</v>
-      </c>
-      <c r="D40" s="176" t="s">
+      <c r="C40" s="175" t="s">
+        <v>142</v>
+      </c>
+      <c r="D40" s="175" t="s">
         <v>4</v>
       </c>
-      <c r="E40" s="176" t="s">
-        <v>121</v>
-      </c>
-      <c r="F40" s="176" t="s">
+      <c r="E40" s="175" t="s">
+        <v>143</v>
+      </c>
+      <c r="F40" s="175" t="s">
         <v>17</v>
       </c>
-      <c r="G40" s="177" t="s">
+      <c r="G40" s="176" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="178" t="s">
-        <v>158</v>
-      </c>
-      <c r="B41" s="179">
+      <c r="A41" s="177" t="s">
+        <v>186</v>
+      </c>
+      <c r="B41" s="178">
         <v>0</v>
       </c>
-      <c r="C41" s="179">
+      <c r="C41" s="178">
         <v>0</v>
       </c>
-      <c r="D41" s="179">
+      <c r="D41" s="178">
         <v>16</v>
       </c>
-      <c r="E41" s="179">
+      <c r="E41" s="178">
         <f t="shared" ref="E41:E49" si="2">B41*C41*D41</f>
         <v>0</v>
       </c>
-      <c r="F41" s="179"/>
-      <c r="G41" s="180"/>
+      <c r="F41" s="178"/>
+      <c r="G41" s="179"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="181" t="s">
-        <v>159</v>
-      </c>
-      <c r="B42" s="182">
+      <c r="A42" s="180" t="s">
+        <v>187</v>
+      </c>
+      <c r="B42" s="181">
         <v>0</v>
       </c>
-      <c r="C42" s="182">
+      <c r="C42" s="181">
         <v>0</v>
       </c>
-      <c r="D42" s="182">
+      <c r="D42" s="181">
         <v>16</v>
       </c>
-      <c r="E42" s="182">
+      <c r="E42" s="181">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F42" s="182"/>
-      <c r="G42" s="183"/>
+      <c r="F42" s="181"/>
+      <c r="G42" s="182"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="178" t="s">
-        <v>160</v>
-      </c>
-      <c r="B43" s="179">
+      <c r="A43" s="177" t="s">
+        <v>188</v>
+      </c>
+      <c r="B43" s="178">
         <v>0</v>
       </c>
-      <c r="C43" s="179">
+      <c r="C43" s="178">
         <v>0</v>
       </c>
-      <c r="D43" s="179">
+      <c r="D43" s="178">
         <v>15</v>
       </c>
-      <c r="E43" s="179">
+      <c r="E43" s="178">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F43" s="179"/>
-      <c r="G43" s="180"/>
+      <c r="F43" s="178"/>
+      <c r="G43" s="179"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="181" t="s">
-        <v>161</v>
-      </c>
-      <c r="B44" s="182">
+      <c r="A44" s="180" t="s">
+        <v>189</v>
+      </c>
+      <c r="B44" s="181">
         <v>0</v>
       </c>
-      <c r="C44" s="182">
+      <c r="C44" s="181">
         <v>0</v>
       </c>
-      <c r="D44" s="182">
+      <c r="D44" s="181">
         <v>15</v>
       </c>
-      <c r="E44" s="182">
+      <c r="E44" s="181">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F44" s="182"/>
-      <c r="G44" s="183"/>
+      <c r="F44" s="181"/>
+      <c r="G44" s="182"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="178" t="s">
-        <v>162</v>
-      </c>
-      <c r="B45" s="179">
+      <c r="A45" s="177" t="s">
+        <v>190</v>
+      </c>
+      <c r="B45" s="178">
         <v>0</v>
       </c>
-      <c r="C45" s="179">
+      <c r="C45" s="178">
         <v>0</v>
       </c>
-      <c r="D45" s="179">
+      <c r="D45" s="178">
         <v>10</v>
       </c>
-      <c r="E45" s="179">
+      <c r="E45" s="178">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F45" s="179"/>
-      <c r="G45" s="180"/>
+      <c r="F45" s="178"/>
+      <c r="G45" s="179"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="181" t="s">
-        <v>163</v>
-      </c>
-      <c r="B46" s="182">
+      <c r="A46" s="180" t="s">
+        <v>191</v>
+      </c>
+      <c r="B46" s="181">
         <v>0</v>
       </c>
-      <c r="C46" s="182">
+      <c r="C46" s="181">
         <v>0</v>
       </c>
-      <c r="D46" s="182">
+      <c r="D46" s="181">
         <v>8</v>
       </c>
-      <c r="E46" s="182">
+      <c r="E46" s="181">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F46" s="182"/>
-      <c r="G46" s="183"/>
+      <c r="F46" s="181"/>
+      <c r="G46" s="182"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="178" t="s">
-        <v>164</v>
-      </c>
-      <c r="B47" s="179">
+      <c r="A47" s="177" t="s">
+        <v>192</v>
+      </c>
+      <c r="B47" s="178">
         <v>0</v>
       </c>
-      <c r="C47" s="179">
+      <c r="C47" s="178">
         <v>0</v>
       </c>
-      <c r="D47" s="179">
+      <c r="D47" s="178">
         <v>8</v>
       </c>
-      <c r="E47" s="179">
+      <c r="E47" s="178">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F47" s="179"/>
-      <c r="G47" s="180"/>
+      <c r="F47" s="178"/>
+      <c r="G47" s="179"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="181" t="s">
-        <v>165</v>
-      </c>
-      <c r="B48" s="182">
+      <c r="A48" s="180" t="s">
+        <v>193</v>
+      </c>
+      <c r="B48" s="181">
         <v>0</v>
       </c>
-      <c r="C48" s="182">
+      <c r="C48" s="181">
         <v>0</v>
       </c>
-      <c r="D48" s="182">
+      <c r="D48" s="181">
         <v>8</v>
       </c>
-      <c r="E48" s="182">
+      <c r="E48" s="181">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F48" s="182"/>
-      <c r="G48" s="183"/>
+      <c r="F48" s="181"/>
+      <c r="G48" s="182"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="184" t="s">
-        <v>166</v>
-      </c>
-      <c r="B49" s="185">
+      <c r="A49" s="183" t="s">
+        <v>194</v>
+      </c>
+      <c r="B49" s="184">
         <v>0</v>
       </c>
-      <c r="C49" s="185">
+      <c r="C49" s="184">
         <v>0</v>
       </c>
-      <c r="D49" s="185">
+      <c r="D49" s="184">
         <v>4</v>
       </c>
-      <c r="E49" s="185">
+      <c r="E49" s="184">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F49" s="185"/>
-      <c r="G49" s="186"/>
+      <c r="F49" s="184"/>
+      <c r="G49" s="185"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="187" t="s">
-        <v>142</v>
-      </c>
-      <c r="B50" s="188"/>
-      <c r="C50" s="188"/>
-      <c r="D50" s="188">
+      <c r="A50" s="186" t="s">
+        <v>163</v>
+      </c>
+      <c r="B50" s="187"/>
+      <c r="C50" s="187"/>
+      <c r="D50" s="187">
         <f>SUM(D41:D49)</f>
         <v>100</v>
       </c>
-      <c r="E50" s="189">
+      <c r="E50" s="188">
         <f>(SUM(E41:E49) +E52+E53+E54)/D50</f>
         <v>0</v>
       </c>
-      <c r="F50" s="189"/>
-      <c r="G50" s="190"/>
+      <c r="F50" s="188"/>
+      <c r="G50" s="189"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="191" t="s">
+      <c r="A51" s="190" t="s">
+        <v>164</v>
+      </c>
+      <c r="B51" s="191" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" s="191"/>
+      <c r="D51" s="191" t="s">
+        <v>4</v>
+      </c>
+      <c r="E51" s="192" t="s">
         <v>143</v>
       </c>
-      <c r="B51" s="192" t="s">
-        <v>14</v>
-      </c>
-      <c r="C51" s="192"/>
-      <c r="D51" s="192" t="s">
-        <v>4</v>
-      </c>
-      <c r="E51" s="193" t="s">
-        <v>121</v>
-      </c>
-      <c r="F51" s="193"/>
-      <c r="G51" s="194" t="s">
+      <c r="F51" s="192"/>
+      <c r="G51" s="193" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="195" t="s">
-        <v>144</v>
-      </c>
-      <c r="B52" s="196">
+      <c r="A52" s="194" t="s">
+        <v>165</v>
+      </c>
+      <c r="B52" s="195">
         <v>0</v>
       </c>
-      <c r="C52" s="196"/>
-      <c r="D52" s="197">
+      <c r="C52" s="195"/>
+      <c r="D52" s="196">
         <v>-10</v>
       </c>
-      <c r="E52" s="196">
+      <c r="E52" s="195">
         <f>B52*D52</f>
         <v>0</v>
       </c>
-      <c r="F52" s="196"/>
-      <c r="G52" s="198"/>
+      <c r="F52" s="195"/>
+      <c r="G52" s="197"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="199" t="s">
-        <v>167</v>
-      </c>
-      <c r="B53" s="200">
+      <c r="A53" s="198" t="s">
+        <v>195</v>
+      </c>
+      <c r="B53" s="199">
         <v>0</v>
       </c>
-      <c r="C53" s="200"/>
-      <c r="D53" s="201">
+      <c r="C53" s="199"/>
+      <c r="D53" s="200">
         <v>-15</v>
       </c>
-      <c r="E53" s="200">
+      <c r="E53" s="199">
         <f>B53*D53</f>
         <v>0</v>
       </c>
-      <c r="F53" s="200"/>
-      <c r="G53" s="202"/>
+      <c r="F53" s="199"/>
+      <c r="G53" s="201"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="203" t="s">
-        <v>157</v>
-      </c>
-      <c r="B54" s="204">
+      <c r="A54" s="202" t="s">
+        <v>185</v>
+      </c>
+      <c r="B54" s="203">
         <v>0</v>
       </c>
-      <c r="C54" s="204"/>
-      <c r="D54" s="205">
+      <c r="C54" s="203"/>
+      <c r="D54" s="204">
         <v>-5</v>
       </c>
-      <c r="E54" s="204">
+      <c r="E54" s="203">
         <f>B54*D54</f>
         <v>0</v>
       </c>
-      <c r="F54" s="204"/>
-      <c r="G54" s="206"/>
+      <c r="F54" s="203"/>
+      <c r="G54" s="205"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5848,21 +6208,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B41E0342602C49449CD93109DBCAB8C5" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4cab946e3812a26735e8b0dc00d59aca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d3ea4e87-b30d-4ccc-9564-7710f23c54f0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="afa808ced5dc9827eedaaa69eb8b35dd" ns2:_="">
     <xsd:import namespace="d3ea4e87-b30d-4ccc-9564-7710f23c54f0"/>
@@ -5994,14 +6345,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F62C71A-5318-410B-8440-006B73523578}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F1A1E89-A0AE-4DED-85B2-2445C39C0F55}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F1A1E89-A0AE-4DED-85B2-2445C39C0F55}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD1971BE-1E76-44E5-BF52-2DB1BB889C58}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD1971BE-1E76-44E5-BF52-2DB1BB889C58}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F62C71A-5318-410B-8440-006B73523578}"/>
 </file>